--- a/my-app/static/downloads-excel/Reporte_accesos_0105781496_2023_11_28.xlsx
+++ b/my-app/static/downloads-excel/Reporte_accesos_0105781496_2023_11_28.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,31 +442,41 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>ÁREA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>CLAVE GENERADA</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0105781496</t>
+          <t>0123456789</t>
         </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45257.83576388889</v>
+        <v>45258.44087962963</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SwR2Wh</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9QMqwY</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -474,35 +484,45 @@
         </is>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45257.41307870371</v>
+        <v>45258.44001157407</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nyw5LR</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FeAQd8</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0105781496</t>
+          <t>0123456789</t>
         </is>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45257.41237268518</v>
+        <v>45257.83667824074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3D9AlD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -510,17 +530,22 @@
         </is>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45257</v>
+        <v>45257.83576388889</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SwR2Wh</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -528,17 +553,22 @@
         </is>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45254</v>
+        <v>45257.41307870371</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Nyw5LR</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -546,63 +576,129 @@
         </is>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45253</v>
+        <v>45257.41237268518</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0123456789</t>
+          <t>0105781496</t>
         </is>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45257.83667824074</v>
+        <v>45257</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3D9AlD</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0123456789</t>
+          <t>0105781496</t>
         </is>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45251</v>
+        <v>45254</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1234</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0105781496</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>45253</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>4</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0123456789</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>45251</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>2</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>0123456789</t>
         </is>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C12" s="1" t="n">
         <v>45250</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Area2 prueba</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>123</t>
         </is>
